--- a/第二次迭代/项目开发计划1.01.xlsx
+++ b/第二次迭代/项目开发计划1.01.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="91">
   <si>
     <t>注册登陆</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -370,6 +370,14 @@
   </si>
   <si>
     <t>李梦宇+程志豪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程志豪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韦赫城+程志豪+黄俊萌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1293,8 +1301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1823,7 +1831,7 @@
         <v>24</v>
       </c>
       <c r="K29" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="L29" t="s">
         <v>40</v>
@@ -1842,7 +1850,7 @@
         <v>4</v>
       </c>
       <c r="K30" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="L30" t="s">
         <v>27</v>

--- a/第二次迭代/项目开发计划1.01.xlsx
+++ b/第二次迭代/项目开发计划1.01.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="90">
   <si>
     <t>注册登陆</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -325,30 +325,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>黄俊萌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>部分原型图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>李梦宇+黄俊萌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>项目开发计划表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开发实施-原型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张晓+李梦宇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>程志豪+李梦宇+张晓</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -357,10 +341,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>李梦宇+张晓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>模块拼接</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -378,6 +358,22 @@
   </si>
   <si>
     <t>韦赫城+程志豪+黄俊萌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发实施-原型（按模块）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李梦宇+张晓+黄俊萌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张晓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄俊萌+张晓</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1301,8 +1297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1317,7 +1313,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -1364,7 +1360,7 @@
         <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s">
         <v>31</v>
@@ -1488,7 +1484,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="K9" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
@@ -1514,7 +1510,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
@@ -1524,12 +1520,12 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="K11" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1555,7 +1551,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="K13" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L13" t="s">
         <v>21</v>
@@ -1579,7 +1575,7 @@
         <v>4</v>
       </c>
       <c r="K14" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="L14" t="s">
         <v>20</v>
@@ -1777,7 +1773,7 @@
         <v>4</v>
       </c>
       <c r="K24" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
@@ -1831,7 +1827,7 @@
         <v>24</v>
       </c>
       <c r="K29" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L29" t="s">
         <v>40</v>
@@ -1850,7 +1846,7 @@
         <v>4</v>
       </c>
       <c r="K30" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="L30" t="s">
         <v>27</v>
@@ -1861,7 +1857,7 @@
         <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1905,7 +1901,7 @@
       </c>
       <c r="C34" s="1"/>
       <c r="K34" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
@@ -1918,7 +1914,7 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="K35" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
@@ -1932,7 +1928,7 @@
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="K36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
@@ -1945,7 +1941,7 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="K37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.15">
@@ -1959,7 +1955,7 @@
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="K38" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
@@ -1972,7 +1968,7 @@
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="K39" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
